--- a/trunk/common/mmyy.xlsx
+++ b/trunk/common/mmyy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,22 @@
   </si>
   <si>
     <t>燕丰套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫保鸡丁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +653,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -704,11 +720,23 @@
       <c r="A5" s="1">
         <v>40574</v>
       </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>40575</v>
       </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
@@ -719,6 +747,12 @@
       <c r="A8" s="1">
         <v>40577</v>
       </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
@@ -733,6 +767,15 @@
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>40580</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/trunk/common/mmyy.xlsx
+++ b/trunk/common/mmyy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,7 +59,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宫保鸡丁</t>
+    <t>串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫保鸡丁，面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +657,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -769,18 +773,27 @@
         <v>40580</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="C11">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>40581</v>
+      </c>
+      <c r="B12">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/trunk/common/mmyy.xlsx
+++ b/trunk/common/mmyy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>宫保鸡丁，面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -800,10 +804,22 @@
       <c r="A13" s="1">
         <v>40582</v>
       </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>40583</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8">

--- a/trunk/common/mmyy.xlsx
+++ b/trunk/common/mmyy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥鸟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -825,6 +829,12 @@
     <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>40584</v>
+      </c>
+      <c r="B15">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8">

--- a/trunk/common/mmyy.xlsx
+++ b/trunk/common/mmyy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>吉祥鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉条子面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驴肉火烧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -842,14 +850,41 @@
         <v>40585</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>40586</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>40587</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>40588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>40589</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>40590</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/common/mmyy.xlsx
+++ b/trunk/common/mmyy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>驴肉火烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒面片，宫保鸡丁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +677,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -885,6 +889,12 @@
     <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>40590</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/common/mmyy.xlsx
+++ b/trunk/common/mmyy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>炒面片，宫保鸡丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖饭 炒面(西红柿鸡蛋？!)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -895,6 +899,17 @@
       </c>
       <c r="D21" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>40591</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/common/mmyy.xlsx
+++ b/trunk/common/mmyy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,7 +87,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盖饭 炒面(西红柿鸡蛋？!)</t>
+    <t>炒面jeo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖饭 炒面(有西红柿鸡蛋的吗？!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫保盖饭，XX手抓饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -909,6 +917,46 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>40592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>40593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>40594</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>40595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>40596</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
         <v>17</v>
       </c>
     </row>

--- a/trunk/common/mmyy.xlsx
+++ b/trunk/common/mmyy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,22 @@
   </si>
   <si>
     <t>宫保盖饭，XX手抓饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -958,6 +974,67 @@
       </c>
       <c r="D27" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>40597</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <f>SUM(B3:B28)</f>
+        <v>310.5</v>
+      </c>
+      <c r="C33">
+        <f>SUM(C3:C28)</f>
+        <v>274</v>
+      </c>
+      <c r="D33">
+        <f>SUM(B33:C33)</f>
+        <v>584.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <f>-D34</f>
+        <v>-292.25</v>
+      </c>
+      <c r="C34">
+        <f>-D34</f>
+        <v>-292.25</v>
+      </c>
+      <c r="D34">
+        <f>D33/2</f>
+        <v>292.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <f>B33+B34</f>
+        <v>18.25</v>
+      </c>
+      <c r="C35">
+        <f>C33+C34</f>
+        <v>-18.25</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/common/mmyy.xlsx
+++ b/trunk/common/mmyy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,46 @@
   </si>
   <si>
     <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3宫保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀削面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀削面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒面片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疙瘩汤，炸酱馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰城，老北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,16 +742,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="78" customHeight="1">
@@ -990,7 +1030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1007,7 +1047,7 @@
         <v>584.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1024,7 +1064,7 @@
         <v>292.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1035,6 +1075,137 @@
       <c r="C35">
         <f>C33+C34</f>
         <v>-18.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40981</v>
+      </c>
+      <c r="B42">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>40982</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>40983</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>40984</v>
+      </c>
+      <c r="D45">
+        <v>70</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>40985</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>40986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>40987</v>
+      </c>
+      <c r="B48">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>40988</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>40989</v>
+      </c>
+      <c r="B50">
+        <v>41.5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>40990</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>40991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>40992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>40993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>40994</v>
+      </c>
+      <c r="B55">
+        <v>46</v>
+      </c>
+      <c r="C55">
+        <v>48</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>40995</v>
       </c>
     </row>
   </sheetData>
